--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.2952794370973</v>
+        <v>945.0806933732866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1126.468922550142</v>
+        <v>1293.101098690907</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.960309591019</v>
+        <v>1169.689344710637</v>
       </c>
       <c r="AD2" t="n">
-        <v>823295.2794370973</v>
+        <v>945080.6933732866</v>
       </c>
       <c r="AE2" t="n">
-        <v>1126468.922550143</v>
+        <v>1293101.098690907</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.909270121632427e-07</v>
+        <v>1.463422048606299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018960.309591019</v>
+        <v>1169689.344710637</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.2316430612425</v>
+        <v>670.7111071160962</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.3208232316629</v>
+        <v>917.6965264419543</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.4663446636214</v>
+        <v>830.112857953498</v>
       </c>
       <c r="AD3" t="n">
-        <v>573231.6430612425</v>
+        <v>670711.1071160962</v>
       </c>
       <c r="AE3" t="n">
-        <v>784320.8232316629</v>
+        <v>917696.5264419543</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014772077727519e-06</v>
+        <v>1.8775940257683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>709466.3446636214</v>
+        <v>830112.8579534979</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.5717048933989</v>
+        <v>593.9409091891462</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.8502432352734</v>
+        <v>812.6561547762016</v>
       </c>
       <c r="AC4" t="n">
-        <v>629.4392726528484</v>
+        <v>735.0973919344367</v>
       </c>
       <c r="AD4" t="n">
-        <v>508571.7048933989</v>
+        <v>593940.9091891461</v>
       </c>
       <c r="AE4" t="n">
-        <v>695850.2432352734</v>
+        <v>812656.1547762016</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.102862930432376e-06</v>
+        <v>2.040585166728612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>629439.2726528484</v>
+        <v>735097.3919344367</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>478.5209308391312</v>
+        <v>551.6946240297513</v>
       </c>
       <c r="AB5" t="n">
-        <v>654.7334484276397</v>
+        <v>754.8529236465548</v>
       </c>
       <c r="AC5" t="n">
-        <v>592.2466070338712</v>
+        <v>682.8108200564593</v>
       </c>
       <c r="AD5" t="n">
-        <v>478520.9308391312</v>
+        <v>551694.6240297513</v>
       </c>
       <c r="AE5" t="n">
-        <v>654733.4484276397</v>
+        <v>754852.9236465548</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153910809305063e-06</v>
+        <v>2.135037107714358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>592246.6070338712</v>
+        <v>682810.8200564593</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>448.5346123700264</v>
+        <v>533.8184758112021</v>
       </c>
       <c r="AB6" t="n">
-        <v>613.7048445952054</v>
+        <v>730.3939890139357</v>
       </c>
       <c r="AC6" t="n">
-        <v>555.1337155671974</v>
+        <v>660.6862118168468</v>
       </c>
       <c r="AD6" t="n">
-        <v>448534.6123700264</v>
+        <v>533818.4758112021</v>
       </c>
       <c r="AE6" t="n">
-        <v>613704.8445952054</v>
+        <v>730393.9890139357</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17790587994115e-06</v>
+        <v>2.179434270646843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>555133.7155671974</v>
+        <v>660686.2118168469</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>431.8909175266635</v>
+        <v>517.1747809678391</v>
       </c>
       <c r="AB7" t="n">
-        <v>590.9322070425218</v>
+        <v>707.6213514612522</v>
       </c>
       <c r="AC7" t="n">
-        <v>534.5344665809444</v>
+        <v>640.0869628305938</v>
       </c>
       <c r="AD7" t="n">
-        <v>431890.9175266635</v>
+        <v>517174.7809678391</v>
       </c>
       <c r="AE7" t="n">
-        <v>590932.2070425218</v>
+        <v>707621.3514612522</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.200173678955574e-06</v>
+        <v>2.220635528854617e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>534534.4665809444</v>
+        <v>640086.9628305938</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.9764310021591</v>
+        <v>490.2353755387998</v>
       </c>
       <c r="AB8" t="n">
-        <v>570.5255485989873</v>
+        <v>670.761668470552</v>
       </c>
       <c r="AC8" t="n">
-        <v>516.0753909783359</v>
+        <v>606.7451162516361</v>
       </c>
       <c r="AD8" t="n">
-        <v>416976.4310021591</v>
+        <v>490235.3755387997</v>
       </c>
       <c r="AE8" t="n">
-        <v>570525.5485989873</v>
+        <v>670761.668470552</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.214482023605303e-06</v>
+        <v>2.247109712587704e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>516075.3909783359</v>
+        <v>606745.1162516361</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>414.2351057028632</v>
+        <v>487.3234580389117</v>
       </c>
       <c r="AB9" t="n">
-        <v>566.7747463857538</v>
+        <v>666.7774544824716</v>
       </c>
       <c r="AC9" t="n">
-        <v>512.6825600640494</v>
+        <v>603.1411500546985</v>
       </c>
       <c r="AD9" t="n">
-        <v>414235.1057028632</v>
+        <v>487323.4580389117</v>
       </c>
       <c r="AE9" t="n">
-        <v>566774.7463857539</v>
+        <v>666777.4544824716</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218426738525048e-06</v>
+        <v>2.254408467972519e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>512682.5600640494</v>
+        <v>603141.1500546986</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>654.5291778077304</v>
+        <v>760.2319948015933</v>
       </c>
       <c r="AB2" t="n">
-        <v>895.5556968659115</v>
+        <v>1040.182954356083</v>
       </c>
       <c r="AC2" t="n">
-        <v>810.0851180773428</v>
+        <v>940.9093530982831</v>
       </c>
       <c r="AD2" t="n">
-        <v>654529.1778077304</v>
+        <v>760231.9948015932</v>
       </c>
       <c r="AE2" t="n">
-        <v>895555.6968659115</v>
+        <v>1040182.954356083</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.132917030959358e-07</v>
+        <v>1.740874936600038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>810085.1180773429</v>
+        <v>940909.3530982831</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.2571764827455</v>
+        <v>573.5179100657457</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.1597416007348</v>
+        <v>784.7125063764331</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.0097592444822</v>
+        <v>709.8206461187855</v>
       </c>
       <c r="AD3" t="n">
-        <v>491257.1764827456</v>
+        <v>573517.9100657457</v>
       </c>
       <c r="AE3" t="n">
-        <v>672159.7416007349</v>
+        <v>784712.5063764331</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11875396419747e-06</v>
+        <v>2.132517715743145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.04947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>608009.7592444823</v>
+        <v>709820.6461187855</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.9562849682637</v>
+        <v>508.5386472731182</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.2311103612456</v>
+        <v>695.8050123408061</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.0413342145131</v>
+        <v>629.3983585314671</v>
       </c>
       <c r="AD4" t="n">
-        <v>437956.2849682637</v>
+        <v>508538.6472731182</v>
       </c>
       <c r="AE4" t="n">
-        <v>599231.1103612456</v>
+        <v>695805.0123408061</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19911339596923e-06</v>
+        <v>2.285695194763976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>542041.3342145131</v>
+        <v>629398.3585314672</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>401.244809191563</v>
+        <v>483.5054532660121</v>
       </c>
       <c r="AB5" t="n">
-        <v>549.0008496075577</v>
+        <v>661.5534919137076</v>
       </c>
       <c r="AC5" t="n">
-        <v>496.6049790485435</v>
+        <v>598.41575514162</v>
       </c>
       <c r="AD5" t="n">
-        <v>401244.8091915631</v>
+        <v>483505.4532660121</v>
       </c>
       <c r="AE5" t="n">
-        <v>549000.8496075578</v>
+        <v>661553.4919137076</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.239824334060331e-06</v>
+        <v>2.363296525782342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>496604.9790485435</v>
+        <v>598415.7551416201</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.0611307356377</v>
+        <v>453.5581521859206</v>
       </c>
       <c r="AB6" t="n">
-        <v>524.1211385368844</v>
+        <v>620.5782733942472</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.0997526835614</v>
+        <v>561.3511539685766</v>
       </c>
       <c r="AD6" t="n">
-        <v>383061.1307356377</v>
+        <v>453558.1521859206</v>
       </c>
       <c r="AE6" t="n">
-        <v>524121.1385368843</v>
+        <v>620578.2733942472</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.263053232306856e-06</v>
+        <v>2.407574390811802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>474099.7526835614</v>
+        <v>561351.1539685766</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.4605971634899</v>
+        <v>451.9576186137727</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.9312178929138</v>
+        <v>618.3883527502767</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.1188349922784</v>
+        <v>559.3702362772935</v>
       </c>
       <c r="AD7" t="n">
-        <v>381460.5971634899</v>
+        <v>451957.6186137727</v>
       </c>
       <c r="AE7" t="n">
-        <v>521931.2178929137</v>
+        <v>618388.3527502767</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.265757636260713e-06</v>
+        <v>2.412729402125003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>472118.8349922784</v>
+        <v>559370.2362772935</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.3160785852883</v>
+        <v>416.3895838230322</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.740204756826</v>
+        <v>569.7225983986357</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.9088588993518</v>
+        <v>515.349073218158</v>
       </c>
       <c r="AD2" t="n">
-        <v>343316.0785852883</v>
+        <v>416389.5838230322</v>
       </c>
       <c r="AE2" t="n">
-        <v>469740.204756826</v>
+        <v>569722.5983986356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302820141414809e-06</v>
+        <v>2.77466594935971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>424908.8588993518</v>
+        <v>515349.073218158</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.5998404026882</v>
+        <v>373.7585969864527</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.2939631679658</v>
+        <v>511.3930014624248</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.0406445779172</v>
+        <v>462.5863711474356</v>
       </c>
       <c r="AD3" t="n">
-        <v>300599.8404026882</v>
+        <v>373758.5969864528</v>
       </c>
       <c r="AE3" t="n">
-        <v>411293.9631679658</v>
+        <v>511393.0014624248</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391411803255272e-06</v>
+        <v>2.963343004382041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>372040.6445779172</v>
+        <v>462586.3711474356</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.4099818384461</v>
+        <v>526.0990093534774</v>
       </c>
       <c r="AB2" t="n">
-        <v>599.8518784347224</v>
+        <v>719.8318744476521</v>
       </c>
       <c r="AC2" t="n">
-        <v>542.6028570543109</v>
+        <v>651.1321306407485</v>
       </c>
       <c r="AD2" t="n">
-        <v>438409.9818384461</v>
+        <v>526099.0093534774</v>
       </c>
       <c r="AE2" t="n">
-        <v>599851.8784347224</v>
+        <v>719831.8744476521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147591489740656e-06</v>
+        <v>2.330007482886869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>542602.8570543109</v>
+        <v>651132.1306407485</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.3607185661646</v>
+        <v>424.0779500349954</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.2742596155834</v>
+        <v>580.2421602366222</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.9147513294843</v>
+        <v>524.864662838625</v>
       </c>
       <c r="AD3" t="n">
-        <v>347360.7185661646</v>
+        <v>424077.9500349953</v>
       </c>
       <c r="AE3" t="n">
-        <v>475274.2596155835</v>
+        <v>580242.1602366222</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312122306187156e-06</v>
+        <v>2.664061923785925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>429914.7513294843</v>
+        <v>524864.662838625</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.8515100160738</v>
+        <v>394.5970349472553</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.9491439086986</v>
+        <v>539.9050716073948</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.0066291216414</v>
+        <v>488.3772893347115</v>
       </c>
       <c r="AD4" t="n">
-        <v>328851.5100160738</v>
+        <v>394597.0349472553</v>
       </c>
       <c r="AE4" t="n">
-        <v>449949.1439086986</v>
+        <v>539905.0716073948</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349291887468035e-06</v>
+        <v>2.739529024487232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>407006.6291216414</v>
+        <v>488377.2893347115</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.1550133544071</v>
+        <v>349.39509057879</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.9522047215092</v>
+        <v>478.0577771534164</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.4992223761738</v>
+        <v>432.4326138601979</v>
       </c>
       <c r="AD2" t="n">
-        <v>279155.0133544071</v>
+        <v>349395.0905787899</v>
       </c>
       <c r="AE2" t="n">
-        <v>381952.2047215092</v>
+        <v>478057.7771534164</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410650490926034e-06</v>
+        <v>3.141243109337807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>345499.2223761738</v>
+        <v>432432.6138601979</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.8106035805653</v>
+        <v>349.050680804948</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.4809680746519</v>
+        <v>477.586540506559</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.0729598935077</v>
+        <v>432.0063513775318</v>
       </c>
       <c r="AD3" t="n">
-        <v>278810.6035805653</v>
+        <v>349050.680804948</v>
       </c>
       <c r="AE3" t="n">
-        <v>381480.9680746519</v>
+        <v>477586.540506559</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.417198640397898e-06</v>
+        <v>3.155824559200633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.85807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>345072.9598935078</v>
+        <v>432006.3513775318</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.9073207933789</v>
+        <v>794.8023937417055</v>
       </c>
       <c r="AB2" t="n">
-        <v>941.2251446386176</v>
+        <v>1087.483699324307</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.3959378520944</v>
+        <v>983.6957813537522</v>
       </c>
       <c r="AD2" t="n">
-        <v>687907.3207933789</v>
+        <v>794802.3937417055</v>
       </c>
       <c r="AE2" t="n">
-        <v>941225.1446386176</v>
+        <v>1087483.699324307</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.815409842608139e-07</v>
+        <v>1.666785665442355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>851395.9378520944</v>
+        <v>983695.7813537521</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.4176272173542</v>
+        <v>593.4729881644764</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.3759155952544</v>
+        <v>812.0159245870298</v>
       </c>
       <c r="AC3" t="n">
-        <v>631.7238983875963</v>
+        <v>734.518264415951</v>
       </c>
       <c r="AD3" t="n">
-        <v>510417.6272173542</v>
+        <v>593472.9881644765</v>
       </c>
       <c r="AE3" t="n">
-        <v>698375.9155952544</v>
+        <v>812015.9245870297</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093173994516321e-06</v>
+        <v>2.066933672314751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.25130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>631723.8983875962</v>
+        <v>734518.264415951</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.862420395197</v>
+        <v>539.8324404877478</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.0993189322043</v>
+        <v>738.6225608017819</v>
       </c>
       <c r="AC4" t="n">
-        <v>565.4407172657183</v>
+        <v>668.1294602621342</v>
       </c>
       <c r="AD4" t="n">
-        <v>456862.420395197</v>
+        <v>539832.4404877478</v>
       </c>
       <c r="AE4" t="n">
-        <v>625099.3189322043</v>
+        <v>738622.5608017819</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.17087326908661e-06</v>
+        <v>2.213844637750602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>565440.7172657183</v>
+        <v>668129.4602621342</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.4478936605659</v>
+        <v>502.5031650991371</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.9071128414568</v>
+        <v>687.5469993636839</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.1342234755591</v>
+        <v>621.9284787226874</v>
       </c>
       <c r="AD5" t="n">
-        <v>419447.8936605658</v>
+        <v>502503.1650991371</v>
       </c>
       <c r="AE5" t="n">
-        <v>573907.1128414568</v>
+        <v>687546.9993636839</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.214329346271594e-06</v>
+        <v>2.29600980967284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.83203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>519134.2234755591</v>
+        <v>621928.4787226873</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>398.9109576501841</v>
+        <v>470.2596804703067</v>
       </c>
       <c r="AB6" t="n">
-        <v>545.8075709663796</v>
+        <v>643.43004121237</v>
       </c>
       <c r="AC6" t="n">
-        <v>493.7164624390848</v>
+        <v>582.0219811387951</v>
       </c>
       <c r="AD6" t="n">
-        <v>398910.957650184</v>
+        <v>470259.6804703067</v>
       </c>
       <c r="AE6" t="n">
-        <v>545807.5709663796</v>
+        <v>643430.04121237</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242183351691926e-06</v>
+        <v>2.348675151147226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>493716.4624390848</v>
+        <v>582021.9811387951</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.1909174513498</v>
+        <v>461.3690480708804</v>
       </c>
       <c r="AB7" t="n">
-        <v>533.876427265312</v>
+        <v>631.2654857364553</v>
       </c>
       <c r="AC7" t="n">
-        <v>482.9240103473816</v>
+        <v>571.018393764441</v>
       </c>
       <c r="AD7" t="n">
-        <v>390190.9174513498</v>
+        <v>461369.0480708804</v>
       </c>
       <c r="AE7" t="n">
-        <v>533876.4272653121</v>
+        <v>631265.4857364553</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.251874822650031e-06</v>
+        <v>2.366999432330324e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>482924.0103473816</v>
+        <v>571018.393764441</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.9963254024372</v>
+        <v>333.7939488197808</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.2621043972603</v>
+        <v>456.7116067249418</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.3521772407651</v>
+        <v>413.1236919778784</v>
       </c>
       <c r="AD2" t="n">
-        <v>274996.3254024372</v>
+        <v>333793.9488197808</v>
       </c>
       <c r="AE2" t="n">
-        <v>376262.1043972602</v>
+        <v>456711.6067249418</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421325163339217e-06</v>
+        <v>3.258482807829144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.11848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>340352.1772407651</v>
+        <v>413123.6919778785</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.4869028974375</v>
+        <v>639.8738371882073</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.4132927929043</v>
+        <v>875.5036132822828</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.2264802877877</v>
+        <v>791.9467772076598</v>
       </c>
       <c r="AD2" t="n">
-        <v>537486.9028974376</v>
+        <v>639873.8371882073</v>
       </c>
       <c r="AE2" t="n">
-        <v>735413.2927929043</v>
+        <v>875503.6132822828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019788039415899e-06</v>
+        <v>1.998770463851579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>665226.4802877877</v>
+        <v>791946.7772076598</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.1854930087292</v>
+        <v>499.7819354747359</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.9163288102005</v>
+        <v>683.8236929393997</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.0471212886896</v>
+        <v>618.5605194378437</v>
       </c>
       <c r="AD3" t="n">
-        <v>420185.4930087292</v>
+        <v>499781.9354747359</v>
       </c>
       <c r="AE3" t="n">
-        <v>574916.3288102006</v>
+        <v>683823.6929393997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20764438558041e-06</v>
+        <v>2.366966306171681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>520047.1212886896</v>
+        <v>618560.5194378437</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.6857482390022</v>
+        <v>450.3674420510296</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.1885942416439</v>
+        <v>616.2126030234928</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.7832266508835</v>
+        <v>557.40213705075</v>
       </c>
       <c r="AD4" t="n">
-        <v>370685.7482390022</v>
+        <v>450367.4420510296</v>
       </c>
       <c r="AE4" t="n">
-        <v>507188.5942416439</v>
+        <v>616212.6030234927</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28494138829967e-06</v>
+        <v>2.518467363261941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>458783.2266508836</v>
+        <v>557402.13705075</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.8400267166774</v>
+        <v>424.1265193705988</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.8760231077894</v>
+        <v>580.3086149443227</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.4092587971714</v>
+        <v>524.9247752022923</v>
       </c>
       <c r="AD5" t="n">
-        <v>355840.0267166774</v>
+        <v>424126.5193705988</v>
       </c>
       <c r="AE5" t="n">
-        <v>486876.0231077894</v>
+        <v>580308.6149443227</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.304545520305714e-06</v>
+        <v>2.556891191065972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>440409.2587971714</v>
+        <v>524924.7752022923</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>357.0296823350037</v>
+        <v>425.316174988925</v>
       </c>
       <c r="AB6" t="n">
-        <v>488.503762408685</v>
+        <v>581.9363542452185</v>
       </c>
       <c r="AC6" t="n">
-        <v>441.8816489437361</v>
+        <v>526.3971653488569</v>
       </c>
       <c r="AD6" t="n">
-        <v>357029.6823350036</v>
+        <v>425316.174988925</v>
       </c>
       <c r="AE6" t="n">
-        <v>488503.762408685</v>
+        <v>581936.3542452184</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304570398645823e-06</v>
+        <v>2.55693995226877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>441881.6489437361</v>
+        <v>526397.1653488569</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.8643233499077</v>
+        <v>714.5918778893773</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.4432725224087</v>
+        <v>977.7361328969364</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.8051777413581</v>
+        <v>884.4223686345333</v>
       </c>
       <c r="AD2" t="n">
-        <v>609864.3233499078</v>
+        <v>714591.8778893773</v>
       </c>
       <c r="AE2" t="n">
-        <v>834443.2725224087</v>
+        <v>977736.1328969364</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.480242675028588e-07</v>
+        <v>1.822769180216006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>754805.1777413581</v>
+        <v>884422.3686345334</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.807321776814</v>
+        <v>541.328462638846</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.1286629224124</v>
+        <v>740.6694843087539</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.0855063207206</v>
+        <v>669.981028262476</v>
       </c>
       <c r="AD3" t="n">
-        <v>459807.321776814</v>
+        <v>541328.462638846</v>
       </c>
       <c r="AE3" t="n">
-        <v>629128.6629224124</v>
+        <v>740669.4843087539</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146711550348066e-06</v>
+        <v>2.204785831145263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>569085.5063207205</v>
+        <v>669981.028262476</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.0171936682929</v>
+        <v>490.4529936757532</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.6353689420223</v>
+        <v>671.0594232061663</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.2245547833684</v>
+        <v>607.0144536931849</v>
       </c>
       <c r="AD4" t="n">
-        <v>409017.1936682928</v>
+        <v>490452.9936757532</v>
       </c>
       <c r="AE4" t="n">
-        <v>559635.3689420223</v>
+        <v>671059.4232061664</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223958513829413e-06</v>
+        <v>2.353308805847118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>506224.5547833684</v>
+        <v>607014.4536931849</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.6506603576281</v>
+        <v>465.0864603650886</v>
       </c>
       <c r="AB5" t="n">
-        <v>524.9277589739028</v>
+        <v>636.3518132380469</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.8293903981698</v>
+        <v>575.6192893079862</v>
       </c>
       <c r="AD5" t="n">
-        <v>383650.6603576281</v>
+        <v>465086.4603650885</v>
       </c>
       <c r="AE5" t="n">
-        <v>524927.7589739028</v>
+        <v>636351.8132380469</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265129268427077e-06</v>
+        <v>2.432467942568933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>474829.3903981698</v>
+        <v>575619.2893079862</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.6006759251272</v>
+        <v>442.3906881751341</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.8086827824474</v>
+        <v>605.298456460948</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.15325761867</v>
+        <v>547.5296213180337</v>
       </c>
       <c r="AD6" t="n">
-        <v>372600.6759251272</v>
+        <v>442390.6881751341</v>
       </c>
       <c r="AE6" t="n">
-        <v>509808.6827824474</v>
+        <v>605298.4564609481</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.275562118023169e-06</v>
+        <v>2.45252721463343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>461153.25761867</v>
+        <v>547529.6213180337</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.4760203207245</v>
+        <v>892.3192338598483</v>
       </c>
       <c r="AB2" t="n">
-        <v>1055.567526122754</v>
+        <v>1220.910542113306</v>
       </c>
       <c r="AC2" t="n">
-        <v>954.8256429279253</v>
+        <v>1104.388553532719</v>
       </c>
       <c r="AD2" t="n">
-        <v>771476.0203207245</v>
+        <v>892319.2338598482</v>
       </c>
       <c r="AE2" t="n">
-        <v>1055567.526122754</v>
+        <v>1220910.542113306</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206131156171658e-07</v>
+        <v>1.528739993824279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.66536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>954825.6429279253</v>
+        <v>1104388.553532719</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.5873260162997</v>
+        <v>649.2448286766844</v>
       </c>
       <c r="AB3" t="n">
-        <v>756.0743578877824</v>
+        <v>888.3254172557839</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.9156823279977</v>
+        <v>803.5448862054448</v>
       </c>
       <c r="AD3" t="n">
-        <v>552587.3260162997</v>
+        <v>649244.8286766844</v>
       </c>
       <c r="AE3" t="n">
-        <v>756074.3578877824</v>
+        <v>888325.4172557839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039024479579381e-06</v>
+        <v>1.935623799164918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>683915.6823279978</v>
+        <v>803544.8862054448</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.9140610186212</v>
+        <v>575.564049094208</v>
       </c>
       <c r="AB4" t="n">
-        <v>671.6902758855339</v>
+        <v>787.5121240644582</v>
       </c>
       <c r="AC4" t="n">
-        <v>607.5850986782408</v>
+        <v>712.3530722239534</v>
       </c>
       <c r="AD4" t="n">
-        <v>490914.0610186212</v>
+        <v>575564.0490942081</v>
       </c>
       <c r="AE4" t="n">
-        <v>671690.2758855339</v>
+        <v>787512.1240644583</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.125019689671151e-06</v>
+        <v>2.095826353136698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>607585.0986782408</v>
+        <v>712353.0722239534</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>445.62521996918</v>
+        <v>530.1898671901952</v>
       </c>
       <c r="AB5" t="n">
-        <v>609.7240855590334</v>
+        <v>725.42916661576</v>
       </c>
       <c r="AC5" t="n">
-        <v>551.532874586407</v>
+        <v>656.1952251001808</v>
       </c>
       <c r="AD5" t="n">
-        <v>445625.2199691799</v>
+        <v>530189.8671901951</v>
       </c>
       <c r="AE5" t="n">
-        <v>609724.0855590333</v>
+        <v>725429.16661576</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.182357672432749e-06</v>
+        <v>2.20264266614059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>551532.8745864071</v>
+        <v>656195.2251001808</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.5987540310969</v>
+        <v>516.163401252112</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.5324560585437</v>
+        <v>706.2375371152705</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.1728672698231</v>
+        <v>638.835217783597</v>
       </c>
       <c r="AD6" t="n">
-        <v>431598.7540310969</v>
+        <v>516163.401252112</v>
       </c>
       <c r="AE6" t="n">
-        <v>590532.4560585438</v>
+        <v>706237.5371152705</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200709591412662e-06</v>
+        <v>2.236830899272735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>534172.8672698231</v>
+        <v>638835.2177835971</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>415.0426590948574</v>
+        <v>499.6073063158726</v>
       </c>
       <c r="AB7" t="n">
-        <v>567.8796765634216</v>
+        <v>683.5847576201484</v>
       </c>
       <c r="AC7" t="n">
-        <v>513.6820372563398</v>
+        <v>618.3443877701135</v>
       </c>
       <c r="AD7" t="n">
-        <v>415042.6590948574</v>
+        <v>499607.3063158726</v>
       </c>
       <c r="AE7" t="n">
-        <v>567879.6765634216</v>
+        <v>683584.7576201484</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.21852036406368e-06</v>
+        <v>2.270011017838162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>513682.0372563398</v>
+        <v>618344.3877701135</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.9090524460287</v>
+        <v>479.3809337362254</v>
       </c>
       <c r="AB8" t="n">
-        <v>556.7509171170936</v>
+        <v>655.9101423320939</v>
       </c>
       <c r="AC8" t="n">
-        <v>503.6153909922574</v>
+        <v>593.3109989235846</v>
       </c>
       <c r="AD8" t="n">
-        <v>406909.0524460287</v>
+        <v>479380.9337362254</v>
       </c>
       <c r="AE8" t="n">
-        <v>556750.9171170937</v>
+        <v>655910.1423320939</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.226849311908409e-06</v>
+        <v>2.285527215951982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>503615.3909922574</v>
+        <v>593310.9989235846</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>408.40283292457</v>
+        <v>480.8747142147666</v>
       </c>
       <c r="AB9" t="n">
-        <v>558.7947734687775</v>
+        <v>657.9539986837779</v>
       </c>
       <c r="AC9" t="n">
-        <v>505.464184562307</v>
+        <v>595.1597924936342</v>
       </c>
       <c r="AD9" t="n">
-        <v>408402.83292457</v>
+        <v>480874.7142147666</v>
       </c>
       <c r="AE9" t="n">
-        <v>558794.7734687775</v>
+        <v>657953.9986837779</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.226566974693334e-06</v>
+        <v>2.285001243134564e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>505464.184562307</v>
+        <v>595159.7924936342</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.8339708605143</v>
+        <v>556.6774447928286</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.1617635952471</v>
+        <v>761.6706388411349</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.6340444030262</v>
+        <v>688.9778620815919</v>
       </c>
       <c r="AD2" t="n">
-        <v>478833.9708605143</v>
+        <v>556677.4447928286</v>
       </c>
       <c r="AE2" t="n">
-        <v>655161.7635952471</v>
+        <v>761670.6388411348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.101411662533319e-06</v>
+        <v>2.207776764274936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.04557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>592634.0444030262</v>
+        <v>688977.8620815919</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.3563403522463</v>
+        <v>446.1143839214379</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.0013956047613</v>
+        <v>610.3933812589032</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.9002097786436</v>
+        <v>552.1382936440439</v>
       </c>
       <c r="AD3" t="n">
-        <v>368356.3403522462</v>
+        <v>446114.383921438</v>
       </c>
       <c r="AE3" t="n">
-        <v>504001.3956047613</v>
+        <v>610393.3812589032</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275999321550121e-06</v>
+        <v>2.557737264983535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.98828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>455900.2097786436</v>
+        <v>552138.2936440438</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.7783485459066</v>
+        <v>405.4159981345404</v>
       </c>
       <c r="AB4" t="n">
-        <v>463.5314823264234</v>
+        <v>554.7080543392079</v>
       </c>
       <c r="AC4" t="n">
-        <v>419.2926882237102</v>
+        <v>501.7674961707172</v>
       </c>
       <c r="AD4" t="n">
-        <v>338778.3485459066</v>
+        <v>405415.9981345403</v>
       </c>
       <c r="AE4" t="n">
-        <v>463531.4823264234</v>
+        <v>554708.0543392079</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332786763927506e-06</v>
+        <v>2.671567543024195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>419292.6882237102</v>
+        <v>501767.4961707172</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.5630693909235</v>
+        <v>406.2007189795572</v>
       </c>
       <c r="AB5" t="n">
-        <v>464.6051720060158</v>
+        <v>555.7817440188003</v>
       </c>
       <c r="AC5" t="n">
-        <v>420.2639064672153</v>
+        <v>502.7387144142223</v>
       </c>
       <c r="AD5" t="n">
-        <v>339563.0693909235</v>
+        <v>406200.7189795572</v>
       </c>
       <c r="AE5" t="n">
-        <v>464605.1720060158</v>
+        <v>555781.7440188003</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331055905083194e-06</v>
+        <v>2.668098041048953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>420263.9064672153</v>
+        <v>502738.7144142223</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.7660495742847</v>
+        <v>446.282792622389</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.6667101881087</v>
+        <v>610.623805473212</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.1202732859664</v>
+        <v>552.3467264947413</v>
       </c>
       <c r="AD2" t="n">
-        <v>371766.0495742847</v>
+        <v>446282.792622389</v>
       </c>
       <c r="AE2" t="n">
-        <v>508666.7101881087</v>
+        <v>610623.8054732119</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246575869785583e-06</v>
+        <v>2.607914677849639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>460120.2732859664</v>
+        <v>552346.7264947414</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.0312740907207</v>
+        <v>373.9881089865247</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.1984668254204</v>
+        <v>511.707029906278</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.713560517889</v>
+        <v>462.8704291573492</v>
       </c>
       <c r="AD3" t="n">
-        <v>310031.2740907207</v>
+        <v>373988.1089865246</v>
       </c>
       <c r="AE3" t="n">
-        <v>424198.4668254204</v>
+        <v>511707.029906278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.378140465465176e-06</v>
+        <v>2.883156039787104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>383713.560517889</v>
+        <v>462870.4291573492</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.3728027383144</v>
+        <v>375.3296376341183</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.034005505125</v>
+        <v>513.5425685859826</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.3739179621973</v>
+        <v>464.5307866016575</v>
       </c>
       <c r="AD4" t="n">
-        <v>311372.8027383144</v>
+        <v>375329.6376341183</v>
       </c>
       <c r="AE4" t="n">
-        <v>426034.005505125</v>
+        <v>513542.5685859827</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.377875321177228e-06</v>
+        <v>2.882601341355146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>385373.9179621973</v>
+        <v>464530.7866016575</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.7795063312288</v>
+        <v>375.3719070571438</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.3269635372195</v>
+        <v>513.6004034753615</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.3526007014042</v>
+        <v>464.5831018103657</v>
       </c>
       <c r="AD2" t="n">
-        <v>313779.5063312288</v>
+        <v>375371.9070571438</v>
       </c>
       <c r="AE2" t="n">
-        <v>429326.9635372194</v>
+        <v>513600.4034753615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364869938465613e-06</v>
+        <v>2.967030390837601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>388352.6007014043</v>
+        <v>464583.1018103657</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.7841673492402</v>
+        <v>361.5565229149266</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.4954821424192</v>
+        <v>494.6975854002474</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.6545098116502</v>
+        <v>447.4843421620688</v>
       </c>
       <c r="AD3" t="n">
-        <v>289784.1673492403</v>
+        <v>361556.5229149266</v>
       </c>
       <c r="AE3" t="n">
-        <v>396495.4821424192</v>
+        <v>494697.5854002474</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407410697972067e-06</v>
+        <v>3.059507866344797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>358654.5098116502</v>
+        <v>447484.3421620688</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.759124275134</v>
+        <v>327.345765662418</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.7821377138993</v>
+        <v>447.8889180552742</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.7313512373592</v>
+        <v>405.1430283321226</v>
       </c>
       <c r="AD2" t="n">
-        <v>260759.124275134</v>
+        <v>327345.765662418</v>
       </c>
       <c r="AE2" t="n">
-        <v>356782.1377138993</v>
+        <v>447888.9180552742</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409753931760774e-06</v>
+        <v>3.353137738625657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>322731.3512373592</v>
+        <v>405143.0283321226</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.7167094459029</v>
+        <v>669.8175085091109</v>
       </c>
       <c r="AB2" t="n">
-        <v>790.4574889263192</v>
+        <v>916.4738654050886</v>
       </c>
       <c r="AC2" t="n">
-        <v>715.0173355972441</v>
+        <v>829.0068859699751</v>
       </c>
       <c r="AD2" t="n">
-        <v>577716.7094459028</v>
+        <v>669817.5085091109</v>
       </c>
       <c r="AE2" t="n">
-        <v>790457.4889263192</v>
+        <v>916473.8654050886</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84864779863942e-07</v>
+        <v>1.911207116815986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>715017.3355972441</v>
+        <v>829006.885969975</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.1552091252339</v>
+        <v>519.8180032333089</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.8715312856131</v>
+        <v>711.2379247756044</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.5251956682041</v>
+        <v>643.3583754637169</v>
       </c>
       <c r="AD3" t="n">
-        <v>439155.2091252339</v>
+        <v>519818.0032333089</v>
       </c>
       <c r="AE3" t="n">
-        <v>600871.5312856131</v>
+        <v>711237.9247756044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178199024346282e-06</v>
+        <v>2.286387336002966e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>543525.1956682041</v>
+        <v>643358.3754637169</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.78125962922</v>
+        <v>472.3587128827234</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.0524035940192</v>
+        <v>646.302029961813</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.8923145492789</v>
+        <v>584.619871312853</v>
       </c>
       <c r="AD4" t="n">
-        <v>391781.25962922</v>
+        <v>472358.7128827234</v>
       </c>
       <c r="AE4" t="n">
-        <v>536052.4035940192</v>
+        <v>646302.029961813</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249422247227654e-06</v>
+        <v>2.424601569303353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>484892.3145492789</v>
+        <v>584619.8713128529</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.6413871126291</v>
+        <v>436.6956735735299</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.0231650408063</v>
+        <v>597.5062862367211</v>
       </c>
       <c r="AC5" t="n">
-        <v>455.0153401667571</v>
+        <v>540.4811248836273</v>
       </c>
       <c r="AD5" t="n">
-        <v>367641.3871126291</v>
+        <v>436695.6735735299</v>
       </c>
       <c r="AE5" t="n">
-        <v>503023.1650408063</v>
+        <v>597506.2862367211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28563702802907e-06</v>
+        <v>2.494879183262865e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.46744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>455015.3401667571</v>
+        <v>540481.1248836273</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.983053226459</v>
+        <v>434.0373396873599</v>
       </c>
       <c r="AB6" t="n">
-        <v>499.3859153403344</v>
+        <v>593.8690365362494</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.7252244727863</v>
+        <v>537.1910091896565</v>
       </c>
       <c r="AD6" t="n">
-        <v>364983.0532264591</v>
+        <v>434037.3396873599</v>
       </c>
       <c r="AE6" t="n">
-        <v>499385.9153403344</v>
+        <v>593869.0365362493</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290733193648304e-06</v>
+        <v>2.5047686911416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>451725.2244727863</v>
+        <v>537191.0091896565</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>735.9306741102708</v>
+        <v>843.7268991013705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1006.932815287611</v>
+        <v>1154.424365954244</v>
       </c>
       <c r="AC2" t="n">
-        <v>910.8325606356432</v>
+        <v>1044.247724712345</v>
       </c>
       <c r="AD2" t="n">
-        <v>735930.6741102708</v>
+        <v>843726.8991013705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1006932.815287611</v>
+        <v>1154424.365954245</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.494782379353279e-07</v>
+        <v>1.59395436457398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.18359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>910832.5606356432</v>
+        <v>1044247.724712344</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.995721912215</v>
+        <v>615.9888776956579</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.900016715115</v>
+        <v>842.8231579745326</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.4302607339135</v>
+        <v>762.385298687174</v>
       </c>
       <c r="AD3" t="n">
-        <v>531995.721912215</v>
+        <v>615988.8776956579</v>
       </c>
       <c r="AE3" t="n">
-        <v>727900.0167151151</v>
+        <v>842823.1579745326</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064202384933196e-06</v>
+        <v>1.996861085431887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>658430.2607339135</v>
+        <v>762385.298687174</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.8038843419059</v>
+        <v>557.541107070185</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.2793773087316</v>
+        <v>762.8523396711042</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.408503404206</v>
+        <v>690.0467830428767</v>
       </c>
       <c r="AD4" t="n">
-        <v>473803.8843419059</v>
+        <v>557541.107070185</v>
       </c>
       <c r="AE4" t="n">
-        <v>648279.3773087315</v>
+        <v>762852.3396711042</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147615278629417e-06</v>
+        <v>2.153376390982257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>586408.503404206</v>
+        <v>690046.7830428766</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.5513355495563</v>
+        <v>521.373809623856</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.6770407014624</v>
+        <v>713.3666477164846</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.5401441854181</v>
+        <v>645.2839360748009</v>
       </c>
       <c r="AD5" t="n">
-        <v>437551.3355495563</v>
+        <v>521373.809623856</v>
       </c>
       <c r="AE5" t="n">
-        <v>598677.0407014624</v>
+        <v>713366.6477164846</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.188515116152821e-06</v>
+        <v>2.230120528288525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>541540.144185418</v>
+        <v>645283.9360748009</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.0401107718718</v>
+        <v>499.8625848461713</v>
       </c>
       <c r="AB6" t="n">
-        <v>569.2444339523748</v>
+        <v>683.9340409673971</v>
       </c>
       <c r="AC6" t="n">
-        <v>514.9165441155404</v>
+        <v>618.6603360049232</v>
       </c>
       <c r="AD6" t="n">
-        <v>416040.1107718718</v>
+        <v>499862.5848461713</v>
       </c>
       <c r="AE6" t="n">
-        <v>569244.4339523748</v>
+        <v>683934.040967397</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.220067775031084e-06</v>
+        <v>2.289325692219695e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH6" t="n">
-        <v>514916.5441155405</v>
+        <v>618660.3360049232</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>399.6578553918376</v>
+        <v>471.4935882705639</v>
       </c>
       <c r="AB7" t="n">
-        <v>546.829509407313</v>
+        <v>645.1183283008521</v>
       </c>
       <c r="AC7" t="n">
-        <v>494.6408685095149</v>
+        <v>583.5491404770784</v>
       </c>
       <c r="AD7" t="n">
-        <v>399657.8553918377</v>
+        <v>471493.5882705639</v>
       </c>
       <c r="AE7" t="n">
-        <v>546829.5094073131</v>
+        <v>645118.3283008521</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.236698161402259e-06</v>
+        <v>2.320530819975898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>494640.8685095149</v>
+        <v>583549.1404770784</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>398.801804293465</v>
+        <v>470.6375371721912</v>
       </c>
       <c r="AB8" t="n">
-        <v>545.6582225282103</v>
+        <v>643.9470414217496</v>
       </c>
       <c r="AC8" t="n">
-        <v>493.5813676062425</v>
+        <v>582.489639573806</v>
       </c>
       <c r="AD8" t="n">
-        <v>398801.804293465</v>
+        <v>470637.5371721912</v>
       </c>
       <c r="AE8" t="n">
-        <v>545658.2225282104</v>
+        <v>643947.0414217496</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239568741646071e-06</v>
+        <v>2.325917154438809e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>493581.3676062425</v>
+        <v>582489.639573806</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.103948685551</v>
+        <v>326.3001515368496</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.3079887495564</v>
+        <v>446.4582626794319</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.2568403497169</v>
+        <v>403.8489126974134</v>
       </c>
       <c r="AD2" t="n">
-        <v>253103.948685551</v>
+        <v>326300.1515368496</v>
       </c>
       <c r="AE2" t="n">
-        <v>346307.9887495564</v>
+        <v>446458.2626794319</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.347227030114053e-06</v>
+        <v>3.369312561886885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.73307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>313256.8403497169</v>
+        <v>403848.9126974134</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.832693988491</v>
+        <v>485.4450714628709</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.7511724574525</v>
+        <v>664.2073631005653</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.233867577326</v>
+        <v>600.8163445871357</v>
       </c>
       <c r="AD2" t="n">
-        <v>409832.693988491</v>
+        <v>485445.0714628709</v>
       </c>
       <c r="AE2" t="n">
-        <v>560751.1724574525</v>
+        <v>664207.3631005653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196529889078273e-06</v>
+        <v>2.463994207724049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>507233.867577326</v>
+        <v>600816.3445871357</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.2705545954934</v>
+        <v>400.8828425613221</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.049522721657</v>
+        <v>548.5055908952215</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.5746209040294</v>
+        <v>496.1569871326126</v>
       </c>
       <c r="AD3" t="n">
-        <v>325270.5545954934</v>
+        <v>400882.8425613221</v>
       </c>
       <c r="AE3" t="n">
-        <v>445049.5227216569</v>
+        <v>548505.5908952216</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.35395084293124e-06</v>
+        <v>2.788168573954804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>402574.6209040294</v>
+        <v>496156.9871326126</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.7039576839139</v>
+        <v>385.5023881839508</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.8013033631968</v>
+        <v>527.4613746783436</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.9227228317098</v>
+        <v>477.1212013757306</v>
       </c>
       <c r="AD4" t="n">
-        <v>320703.9576839139</v>
+        <v>385502.3881839508</v>
       </c>
       <c r="AE4" t="n">
-        <v>438801.3033631968</v>
+        <v>527461.3746783437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363487548019428e-06</v>
+        <v>2.80780735298787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>396922.7228317098</v>
+        <v>477121.2013757306</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.3888328323001</v>
+        <v>597.3086992618963</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.2317854966456</v>
+        <v>817.2641137301501</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.9752782492756</v>
+        <v>739.2655737531318</v>
       </c>
       <c r="AD2" t="n">
-        <v>507388.8328323</v>
+        <v>597308.6992618963</v>
       </c>
       <c r="AE2" t="n">
-        <v>694231.7854966456</v>
+        <v>817264.1137301502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059957384505994e-06</v>
+        <v>2.099970729350157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>627975.2782492755</v>
+        <v>739265.5737531318</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.6908783786632</v>
+        <v>467.2588118598555</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.8746929147592</v>
+        <v>639.3241203905712</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.6817397664258</v>
+        <v>578.3079236375328</v>
       </c>
       <c r="AD3" t="n">
-        <v>399690.8783786632</v>
+        <v>467258.8118598555</v>
       </c>
       <c r="AE3" t="n">
-        <v>546874.6929147592</v>
+        <v>639324.1203905712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.24130427991381e-06</v>
+        <v>2.459252317253263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>494681.7397664258</v>
+        <v>578307.9236375327</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.0390371606515</v>
+        <v>422.6922219878645</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.7800738600695</v>
+        <v>578.3461459885309</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.4179054074795</v>
+        <v>523.1496015292987</v>
       </c>
       <c r="AD4" t="n">
-        <v>355039.0371606515</v>
+        <v>422692.2219878645</v>
       </c>
       <c r="AE4" t="n">
-        <v>485780.0738600695</v>
+        <v>578346.1459885309</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306256101795205e-06</v>
+        <v>2.587933834796032e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>439417.9054074794</v>
+        <v>523149.6015292987</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>347.3706888623423</v>
+        <v>414.853281488963</v>
       </c>
       <c r="AB5" t="n">
-        <v>475.2879014146724</v>
+        <v>567.6205617682867</v>
       </c>
       <c r="AC5" t="n">
-        <v>429.9270911744145</v>
+        <v>513.4476520135826</v>
       </c>
       <c r="AD5" t="n">
-        <v>347370.6888623423</v>
+        <v>414853.2814889631</v>
       </c>
       <c r="AE5" t="n">
-        <v>475287.9014146724</v>
+        <v>567620.5617682867</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319362182043155e-06</v>
+        <v>2.613899392751021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>429927.0911744145</v>
+        <v>513447.6520135826</v>
       </c>
     </row>
   </sheetData>
